--- a/meta/header_data.xlsx
+++ b/meta/header_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,15 +365,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>twin</t>
+          <t>twin4</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>twin3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>twin2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>twin1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -384,12 +399,21 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>11.187345</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>43.187193</v>
       </c>
     </row>
@@ -398,12 +422,21 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>11.215109</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>43.242916</v>
       </c>
     </row>
@@ -412,12 +445,21 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>11.187345</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>43.187193</v>
       </c>
     </row>
@@ -426,12 +468,21 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>11.432601</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>43.065966</v>
       </c>
     </row>
@@ -440,12 +491,21 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>11.187198</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>43.135804</v>
       </c>
     </row>
@@ -454,12 +514,21 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>11.187345</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>43.187193</v>
       </c>
     </row>
@@ -468,12 +537,21 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>11.187345</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>43.187193</v>
       </c>
     </row>
@@ -482,12 +560,21 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>11.187345</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>43.187193</v>
       </c>
     </row>
@@ -496,12 +583,21 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>11.187345</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>43.187193</v>
       </c>
     </row>
@@ -510,12 +606,21 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>11.177275</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>43.018988</v>
       </c>
     </row>
@@ -524,12 +629,21 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>11.177275</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>43.018988</v>
       </c>
     </row>
@@ -538,12 +652,21 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>11.177275</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>43.018988</v>
       </c>
     </row>
@@ -552,12 +675,21 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>11.177275</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>43.018988</v>
       </c>
     </row>
@@ -566,12 +698,21 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>11.22103</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>43.136988</v>
       </c>
     </row>
@@ -580,12 +721,21 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>11.230817</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>43.121694</v>
       </c>
     </row>
@@ -594,12 +744,21 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>11.230823</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>43.120856</v>
       </c>
     </row>
@@ -608,12 +767,21 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>11.231354</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>43.121515</v>
       </c>
     </row>
@@ -622,12 +790,21 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <v>11.230327</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>43.123751</v>
       </c>
     </row>
@@ -636,12 +813,21 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>11.207592</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>43.10589</v>
       </c>
     </row>
@@ -650,12 +836,21 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>11.199393</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>43.101231</v>
       </c>
     </row>
@@ -664,12 +859,21 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>11.198243</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>43.125937</v>
       </c>
     </row>
@@ -678,12 +882,21 @@
         <v>22</v>
       </c>
       <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>8.633843000000001</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>44.395547</v>
       </c>
     </row>
@@ -692,12 +905,21 @@
         <v>23</v>
       </c>
       <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>8.633843000000001</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>44.395547</v>
       </c>
     </row>
@@ -706,12 +928,21 @@
         <v>24</v>
       </c>
       <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
         <v>8.633843000000001</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <v>44.395547</v>
       </c>
     </row>
@@ -720,12 +951,21 @@
         <v>25</v>
       </c>
       <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>8.633843000000001</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>44.395547</v>
       </c>
     </row>
@@ -734,12 +974,21 @@
         <v>26</v>
       </c>
       <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
         <v>10.524918</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>43.750743</v>
       </c>
     </row>
@@ -748,12 +997,21 @@
         <v>27</v>
       </c>
       <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>10.582888</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>43.698924</v>
       </c>
     </row>
@@ -762,12 +1020,21 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
         <v>9.180986000000001</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>44.323216</v>
       </c>
     </row>
@@ -776,12 +1043,21 @@
         <v>31</v>
       </c>
       <c r="B30">
+        <v>17</v>
+      </c>
+      <c r="C30">
         <v>8</v>
       </c>
-      <c r="C30">
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
         <v>9.377815</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>44.295372</v>
       </c>
     </row>
@@ -790,12 +1066,21 @@
         <v>32</v>
       </c>
       <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>9.180986000000001</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>44.323216</v>
       </c>
     </row>
@@ -804,12 +1089,21 @@
         <v>33</v>
       </c>
       <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>9.180986000000001</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>44.323216</v>
       </c>
     </row>
@@ -818,12 +1112,21 @@
         <v>34</v>
       </c>
       <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33">
         <v>8</v>
       </c>
-      <c r="C33">
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>9.180986000000001</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>44.323216</v>
       </c>
     </row>
@@ -832,12 +1135,21 @@
         <v>35</v>
       </c>
       <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
         <v>9.621174</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>44.246934</v>
       </c>
     </row>
@@ -846,12 +1158,21 @@
         <v>38</v>
       </c>
       <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
         <v>9.481278</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>44.290986</v>
       </c>
     </row>
@@ -860,12 +1181,21 @@
         <v>39</v>
       </c>
       <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
         <v>8</v>
       </c>
-      <c r="C36">
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>9.435174</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>44.357305</v>
       </c>
     </row>
@@ -874,12 +1204,21 @@
         <v>40</v>
       </c>
       <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
         <v>9.435174</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>44.357305</v>
       </c>
     </row>
@@ -888,12 +1227,21 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>10.549029</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>43.749701</v>
       </c>
     </row>
@@ -902,12 +1250,21 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
         <v>10.549029</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <v>43.749701</v>
       </c>
     </row>
@@ -916,12 +1273,21 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
         <v>10.549029</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>43.749701</v>
       </c>
     </row>
@@ -930,12 +1296,21 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
         <v>10.549029</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>43.749701</v>
       </c>
     </row>
@@ -944,12 +1319,21 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
         <v>10.549029</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>43.749701</v>
       </c>
     </row>
@@ -958,12 +1342,21 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
         <v>10.549029</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <v>43.749701</v>
       </c>
     </row>
@@ -972,12 +1365,21 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
         <v>10.549029</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <v>43.749701</v>
       </c>
     </row>
@@ -986,12 +1388,21 @@
         <v>49</v>
       </c>
       <c r="B45">
+        <v>21</v>
+      </c>
+      <c r="C45">
         <v>10</v>
       </c>
-      <c r="C45">
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
         <v>10.549029</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>43.749701</v>
       </c>
     </row>
@@ -1000,12 +1411,21 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
         <v>10.549029</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <v>43.749701</v>
       </c>
     </row>
@@ -1014,12 +1434,21 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
         <v>10.549029</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <v>43.749701</v>
       </c>
     </row>
@@ -1028,12 +1457,21 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
         <v>10.549029</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <v>43.749701</v>
       </c>
     </row>
@@ -1042,12 +1480,21 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
         <v>10.549029</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <v>43.749701</v>
       </c>
     </row>
@@ -1056,12 +1503,21 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
         <v>10.549029</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <v>43.749701</v>
       </c>
     </row>
@@ -1070,12 +1526,21 @@
         <v>56</v>
       </c>
       <c r="B51">
+        <v>21</v>
+      </c>
+      <c r="C51">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
         <v>10.549029</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <v>43.749701</v>
       </c>
     </row>
@@ -1084,12 +1549,21 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
         <v>10.549029</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <v>43.749701</v>
       </c>
     </row>
@@ -1098,12 +1572,21 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
         <v>10.549029</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>43.749701</v>
       </c>
     </row>
@@ -1112,12 +1595,21 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
         <v>10.549029</v>
       </c>
-      <c r="D54">
+      <c r="G54">
         <v>43.749701</v>
       </c>
     </row>
@@ -1126,12 +1618,21 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
         <v>10.549029</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>43.749701</v>
       </c>
     </row>
@@ -1140,12 +1641,21 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
         <v>10.549029</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>43.749701</v>
       </c>
     </row>
@@ -1154,12 +1664,21 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C57">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
         <v>10.549029</v>
       </c>
-      <c r="D57">
+      <c r="G57">
         <v>43.749701</v>
       </c>
     </row>
@@ -1168,12 +1687,21 @@
         <v>63</v>
       </c>
       <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
         <v>10.549029</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <v>43.749701</v>
       </c>
     </row>
@@ -1182,12 +1710,21 @@
         <v>64</v>
       </c>
       <c r="B59">
+        <v>21</v>
+      </c>
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
         <v>10.549029</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <v>43.749701</v>
       </c>
     </row>
@@ -1196,12 +1733,21 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
         <v>10.549029</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>43.749701</v>
       </c>
     </row>
@@ -1210,12 +1756,21 @@
         <v>66</v>
       </c>
       <c r="B61">
+        <v>21</v>
+      </c>
+      <c r="C61">
         <v>10</v>
       </c>
-      <c r="C61">
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
         <v>10.549029</v>
       </c>
-      <c r="D61">
+      <c r="G61">
         <v>43.749701</v>
       </c>
     </row>
@@ -1224,12 +1779,21 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
         <v>10.549029</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>43.749701</v>
       </c>
     </row>
@@ -1238,12 +1802,21 @@
         <v>68</v>
       </c>
       <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
         <v>10</v>
       </c>
-      <c r="C63">
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
         <v>10.549029</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>43.749701</v>
       </c>
     </row>
@@ -1252,12 +1825,21 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
         <v>10.549029</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>43.749701</v>
       </c>
     </row>
@@ -1266,12 +1848,21 @@
         <v>70</v>
       </c>
       <c r="B65">
+        <v>21</v>
+      </c>
+      <c r="C65">
         <v>10</v>
       </c>
-      <c r="C65">
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
         <v>10.549029</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>43.749701</v>
       </c>
     </row>
@@ -1280,12 +1871,21 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
         <v>10.549029</v>
       </c>
-      <c r="D66">
+      <c r="G66">
         <v>43.749701</v>
       </c>
     </row>
@@ -1294,12 +1894,21 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
         <v>10.549029</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>43.749701</v>
       </c>
     </row>
@@ -1308,12 +1917,21 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C68">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
         <v>10.549029</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>43.749701</v>
       </c>
     </row>
@@ -1322,12 +1940,21 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
         <v>10.549029</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>43.749701</v>
       </c>
     </row>
@@ -1336,12 +1963,21 @@
         <v>75</v>
       </c>
       <c r="B70">
+        <v>21</v>
+      </c>
+      <c r="C70">
         <v>10</v>
       </c>
-      <c r="C70">
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
         <v>10.549029</v>
       </c>
-      <c r="D70">
+      <c r="G70">
         <v>43.749701</v>
       </c>
     </row>
@@ -1350,12 +1986,21 @@
         <v>76</v>
       </c>
       <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
         <v>10.549029</v>
       </c>
-      <c r="D71">
+      <c r="G71">
         <v>43.749701</v>
       </c>
     </row>
@@ -1364,12 +2009,21 @@
         <v>77</v>
       </c>
       <c r="B72">
+        <v>21</v>
+      </c>
+      <c r="C72">
         <v>10</v>
       </c>
-      <c r="C72">
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
         <v>10.549029</v>
       </c>
-      <c r="D72">
+      <c r="G72">
         <v>43.749701</v>
       </c>
     </row>
@@ -1378,12 +2032,21 @@
         <v>78</v>
       </c>
       <c r="B73">
+        <v>21</v>
+      </c>
+      <c r="C73">
         <v>10</v>
       </c>
-      <c r="C73">
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
         <v>10.549029</v>
       </c>
-      <c r="D73">
+      <c r="G73">
         <v>43.749701</v>
       </c>
     </row>
@@ -1392,12 +2055,21 @@
         <v>79</v>
       </c>
       <c r="B74">
+        <v>21</v>
+      </c>
+      <c r="C74">
         <v>10</v>
       </c>
-      <c r="C74">
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
         <v>11.175</v>
       </c>
-      <c r="D74">
+      <c r="G74">
         <v>42.929167</v>
       </c>
     </row>
@@ -1406,12 +2078,21 @@
         <v>80</v>
       </c>
       <c r="B75">
+        <v>21</v>
+      </c>
+      <c r="C75">
         <v>10</v>
       </c>
-      <c r="C75">
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
         <v>11.155833</v>
       </c>
-      <c r="D75">
+      <c r="G75">
         <v>42.927222</v>
       </c>
     </row>
@@ -1420,12 +2101,21 @@
         <v>81</v>
       </c>
       <c r="B76">
+        <v>21</v>
+      </c>
+      <c r="C76">
         <v>10</v>
       </c>
-      <c r="C76">
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
         <v>11.266667</v>
       </c>
-      <c r="D76">
+      <c r="G76">
         <v>43</v>
       </c>
     </row>
@@ -1434,12 +2124,21 @@
         <v>82</v>
       </c>
       <c r="B77">
+        <v>21</v>
+      </c>
+      <c r="C77">
         <v>10</v>
       </c>
-      <c r="C77">
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
         <v>11.266667</v>
       </c>
-      <c r="D77">
+      <c r="G77">
         <v>43</v>
       </c>
     </row>
@@ -1448,12 +2147,21 @@
         <v>83</v>
       </c>
       <c r="B78">
+        <v>21</v>
+      </c>
+      <c r="C78">
         <v>10</v>
       </c>
-      <c r="C78">
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
         <v>11.283333</v>
       </c>
-      <c r="D78">
+      <c r="G78">
         <v>43</v>
       </c>
     </row>
@@ -1462,12 +2170,21 @@
         <v>84</v>
       </c>
       <c r="B79">
+        <v>21</v>
+      </c>
+      <c r="C79">
         <v>10</v>
       </c>
-      <c r="C79">
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
         <v>11.266667</v>
       </c>
-      <c r="D79">
+      <c r="G79">
         <v>43</v>
       </c>
     </row>
@@ -1476,12 +2193,21 @@
         <v>85</v>
       </c>
       <c r="B80">
+        <v>21</v>
+      </c>
+      <c r="C80">
         <v>10</v>
       </c>
-      <c r="C80">
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
         <v>11.25</v>
       </c>
-      <c r="D80">
+      <c r="G80">
         <v>43.016667</v>
       </c>
     </row>
@@ -1490,12 +2216,21 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C81">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
         <v>11.233333</v>
       </c>
-      <c r="D81">
+      <c r="G81">
         <v>43.033333</v>
       </c>
     </row>
@@ -1504,12 +2239,21 @@
         <v>87</v>
       </c>
       <c r="B82">
+        <v>21</v>
+      </c>
+      <c r="C82">
         <v>10</v>
       </c>
-      <c r="C82">
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
         <v>11.266667</v>
       </c>
-      <c r="D82">
+      <c r="G82">
         <v>43</v>
       </c>
     </row>
@@ -1518,12 +2262,21 @@
         <v>88</v>
       </c>
       <c r="B83">
+        <v>21</v>
+      </c>
+      <c r="C83">
         <v>10</v>
       </c>
-      <c r="C83">
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
         <v>11.266667</v>
       </c>
-      <c r="D83">
+      <c r="G83">
         <v>43.083333</v>
       </c>
     </row>
@@ -1532,12 +2285,21 @@
         <v>89</v>
       </c>
       <c r="B84">
+        <v>21</v>
+      </c>
+      <c r="C84">
         <v>10</v>
       </c>
-      <c r="C84">
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
         <v>11.15</v>
       </c>
-      <c r="D84">
+      <c r="G84">
         <v>42.95</v>
       </c>
     </row>
@@ -1546,12 +2308,21 @@
         <v>90</v>
       </c>
       <c r="B85">
+        <v>21</v>
+      </c>
+      <c r="C85">
         <v>10</v>
       </c>
-      <c r="C85">
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
         <v>11.15</v>
       </c>
-      <c r="D85">
+      <c r="G85">
         <v>42.9</v>
       </c>
     </row>
@@ -1560,12 +2331,21 @@
         <v>91</v>
       </c>
       <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86">
         <v>10</v>
       </c>
-      <c r="C86">
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
         <v>11.133333</v>
       </c>
-      <c r="D86">
+      <c r="G86">
         <v>42.9</v>
       </c>
     </row>
@@ -1574,12 +2354,21 @@
         <v>92</v>
       </c>
       <c r="B87">
+        <v>21</v>
+      </c>
+      <c r="C87">
         <v>10</v>
       </c>
-      <c r="C87">
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
         <v>11.133333</v>
       </c>
-      <c r="D87">
+      <c r="G87">
         <v>42.9</v>
       </c>
     </row>
@@ -1588,12 +2377,21 @@
         <v>93</v>
       </c>
       <c r="B88">
+        <v>21</v>
+      </c>
+      <c r="C88">
         <v>10</v>
       </c>
-      <c r="C88">
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
         <v>11.133333</v>
       </c>
-      <c r="D88">
+      <c r="G88">
         <v>42.9</v>
       </c>
     </row>
@@ -1602,12 +2400,21 @@
         <v>94</v>
       </c>
       <c r="B89">
+        <v>21</v>
+      </c>
+      <c r="C89">
         <v>10</v>
       </c>
-      <c r="C89">
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
         <v>11.15</v>
       </c>
-      <c r="D89">
+      <c r="G89">
         <v>42.9</v>
       </c>
     </row>
@@ -1616,12 +2423,21 @@
         <v>95</v>
       </c>
       <c r="B90">
+        <v>21</v>
+      </c>
+      <c r="C90">
         <v>10</v>
       </c>
-      <c r="C90">
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
         <v>11.266667</v>
       </c>
-      <c r="D90">
+      <c r="G90">
         <v>43.033333</v>
       </c>
     </row>
@@ -1630,12 +2446,21 @@
         <v>96</v>
       </c>
       <c r="B91">
+        <v>21</v>
+      </c>
+      <c r="C91">
         <v>10</v>
       </c>
-      <c r="C91">
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
         <v>11.25</v>
       </c>
-      <c r="D91">
+      <c r="G91">
         <v>43.033333</v>
       </c>
     </row>
@@ -1644,12 +2469,21 @@
         <v>97</v>
       </c>
       <c r="B92">
+        <v>21</v>
+      </c>
+      <c r="C92">
         <v>10</v>
       </c>
-      <c r="C92">
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
         <v>11.266667</v>
       </c>
-      <c r="D92">
+      <c r="G92">
         <v>43.033333</v>
       </c>
     </row>
@@ -1658,12 +2492,21 @@
         <v>98</v>
       </c>
       <c r="B93">
+        <v>21</v>
+      </c>
+      <c r="C93">
         <v>10</v>
       </c>
-      <c r="C93">
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
         <v>11.266667</v>
       </c>
-      <c r="D93">
+      <c r="G93">
         <v>43.033333</v>
       </c>
     </row>
@@ -1672,12 +2515,21 @@
         <v>99</v>
       </c>
       <c r="B94">
+        <v>21</v>
+      </c>
+      <c r="C94">
         <v>10</v>
       </c>
-      <c r="C94">
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
         <v>11.266667</v>
       </c>
-      <c r="D94">
+      <c r="G94">
         <v>43.016667</v>
       </c>
     </row>
@@ -1686,12 +2538,21 @@
         <v>100</v>
       </c>
       <c r="B95">
+        <v>21</v>
+      </c>
+      <c r="C95">
         <v>10</v>
       </c>
-      <c r="C95">
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
         <v>11.266667</v>
       </c>
-      <c r="D95">
+      <c r="G95">
         <v>43</v>
       </c>
     </row>
@@ -1700,12 +2561,21 @@
         <v>101</v>
       </c>
       <c r="B96">
+        <v>21</v>
+      </c>
+      <c r="C96">
         <v>10</v>
       </c>
-      <c r="C96">
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
         <v>11.233333</v>
       </c>
-      <c r="D96">
+      <c r="G96">
         <v>43</v>
       </c>
     </row>
@@ -1714,12 +2584,21 @@
         <v>102</v>
       </c>
       <c r="B97">
+        <v>21</v>
+      </c>
+      <c r="C97">
         <v>10</v>
       </c>
-      <c r="C97">
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
         <v>11.233333</v>
       </c>
-      <c r="D97">
+      <c r="G97">
         <v>43.016667</v>
       </c>
     </row>
@@ -1728,12 +2607,21 @@
         <v>103</v>
       </c>
       <c r="B98">
+        <v>21</v>
+      </c>
+      <c r="C98">
         <v>10</v>
       </c>
-      <c r="C98">
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
         <v>11.166667</v>
       </c>
-      <c r="D98">
+      <c r="G98">
         <v>43</v>
       </c>
     </row>
@@ -1742,12 +2630,21 @@
         <v>104</v>
       </c>
       <c r="B99">
+        <v>21</v>
+      </c>
+      <c r="C99">
         <v>10</v>
       </c>
-      <c r="C99">
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
         <v>11.15</v>
       </c>
-      <c r="D99">
+      <c r="G99">
         <v>42.95</v>
       </c>
     </row>
@@ -1756,12 +2653,21 @@
         <v>105</v>
       </c>
       <c r="B100">
+        <v>21</v>
+      </c>
+      <c r="C100">
         <v>10</v>
       </c>
-      <c r="C100">
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
         <v>11.15</v>
       </c>
-      <c r="D100">
+      <c r="G100">
         <v>42.95</v>
       </c>
     </row>
@@ -1770,12 +2676,21 @@
         <v>106</v>
       </c>
       <c r="B101">
+        <v>21</v>
+      </c>
+      <c r="C101">
         <v>10</v>
       </c>
-      <c r="C101">
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
         <v>11.166667</v>
       </c>
-      <c r="D101">
+      <c r="G101">
         <v>42.966667</v>
       </c>
     </row>
@@ -1784,12 +2699,21 @@
         <v>107</v>
       </c>
       <c r="B102">
+        <v>21</v>
+      </c>
+      <c r="C102">
         <v>10</v>
       </c>
-      <c r="C102">
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
         <v>11.15</v>
       </c>
-      <c r="D102">
+      <c r="G102">
         <v>42.95</v>
       </c>
     </row>
@@ -1798,12 +2722,21 @@
         <v>108</v>
       </c>
       <c r="B103">
+        <v>21</v>
+      </c>
+      <c r="C103">
         <v>10</v>
       </c>
-      <c r="C103">
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
         <v>11.15</v>
       </c>
-      <c r="D103">
+      <c r="G103">
         <v>42.95</v>
       </c>
     </row>
@@ -1812,12 +2745,21 @@
         <v>109</v>
       </c>
       <c r="B104">
+        <v>21</v>
+      </c>
+      <c r="C104">
         <v>10</v>
       </c>
-      <c r="C104">
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
         <v>11.15</v>
       </c>
-      <c r="D104">
+      <c r="G104">
         <v>42.95</v>
       </c>
     </row>
@@ -1826,12 +2768,21 @@
         <v>110</v>
       </c>
       <c r="B105">
+        <v>21</v>
+      </c>
+      <c r="C105">
         <v>10</v>
       </c>
-      <c r="C105">
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
         <v>11.135278</v>
       </c>
-      <c r="D105">
+      <c r="G105">
         <v>42.927222</v>
       </c>
     </row>
@@ -1840,12 +2791,21 @@
         <v>111</v>
       </c>
       <c r="B106">
+        <v>21</v>
+      </c>
+      <c r="C106">
         <v>10</v>
       </c>
-      <c r="C106">
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
         <v>11.183333</v>
       </c>
-      <c r="D106">
+      <c r="G106">
         <v>42.933333</v>
       </c>
     </row>
@@ -1854,12 +2814,21 @@
         <v>112</v>
       </c>
       <c r="B107">
+        <v>26</v>
+      </c>
+      <c r="C107">
         <v>13</v>
       </c>
-      <c r="C107">
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
         <v>11.107485</v>
       </c>
-      <c r="D107">
+      <c r="G107">
         <v>43.324489</v>
       </c>
     </row>
@@ -1868,12 +2837,21 @@
         <v>113</v>
       </c>
       <c r="B108">
+        <v>26</v>
+      </c>
+      <c r="C108">
         <v>13</v>
       </c>
-      <c r="C108">
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
         <v>11.107485</v>
       </c>
-      <c r="D108">
+      <c r="G108">
         <v>43.324489</v>
       </c>
     </row>
@@ -1882,12 +2860,21 @@
         <v>114</v>
       </c>
       <c r="B109">
+        <v>26</v>
+      </c>
+      <c r="C109">
         <v>13</v>
       </c>
-      <c r="C109">
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
         <v>11.107485</v>
       </c>
-      <c r="D109">
+      <c r="G109">
         <v>43.324489</v>
       </c>
     </row>
@@ -1896,12 +2883,21 @@
         <v>115</v>
       </c>
       <c r="B110">
+        <v>27</v>
+      </c>
+      <c r="C110">
         <v>13</v>
       </c>
-      <c r="C110">
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
         <v>11.107485</v>
       </c>
-      <c r="D110">
+      <c r="G110">
         <v>43.324489</v>
       </c>
     </row>
@@ -1910,12 +2906,21 @@
         <v>116</v>
       </c>
       <c r="B111">
+        <v>27</v>
+      </c>
+      <c r="C111">
         <v>13</v>
       </c>
-      <c r="C111">
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
         <v>11.107485</v>
       </c>
-      <c r="D111">
+      <c r="G111">
         <v>43.324489</v>
       </c>
     </row>
@@ -1924,12 +2929,21 @@
         <v>117</v>
       </c>
       <c r="B112">
+        <v>27</v>
+      </c>
+      <c r="C112">
         <v>13</v>
       </c>
-      <c r="C112">
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
         <v>11.107485</v>
       </c>
-      <c r="D112">
+      <c r="G112">
         <v>43.324489</v>
       </c>
     </row>
@@ -1938,12 +2952,21 @@
         <v>118</v>
       </c>
       <c r="B113">
+        <v>26</v>
+      </c>
+      <c r="C113">
         <v>13</v>
       </c>
-      <c r="C113">
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
         <v>11.107485</v>
       </c>
-      <c r="D113">
+      <c r="G113">
         <v>43.324489</v>
       </c>
     </row>
@@ -1952,12 +2975,21 @@
         <v>119</v>
       </c>
       <c r="B114">
+        <v>24</v>
+      </c>
+      <c r="C114">
         <v>12</v>
       </c>
-      <c r="C114">
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
         <v>11.107485</v>
       </c>
-      <c r="D114">
+      <c r="G114">
         <v>43.324489</v>
       </c>
     </row>
@@ -1966,12 +2998,21 @@
         <v>120</v>
       </c>
       <c r="B115">
+        <v>26</v>
+      </c>
+      <c r="C115">
         <v>13</v>
       </c>
-      <c r="C115">
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
         <v>11.107485</v>
       </c>
-      <c r="D115">
+      <c r="G115">
         <v>43.324489</v>
       </c>
     </row>
@@ -1980,12 +3021,21 @@
         <v>121</v>
       </c>
       <c r="B116">
+        <v>25</v>
+      </c>
+      <c r="C116">
         <v>12</v>
       </c>
-      <c r="C116">
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
         <v>11.107485</v>
       </c>
-      <c r="D116">
+      <c r="G116">
         <v>43.324489</v>
       </c>
     </row>
@@ -1994,12 +3044,21 @@
         <v>122</v>
       </c>
       <c r="B117">
+        <v>25</v>
+      </c>
+      <c r="C117">
         <v>12</v>
       </c>
-      <c r="C117">
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
         <v>11.107485</v>
       </c>
-      <c r="D117">
+      <c r="G117">
         <v>43.324489</v>
       </c>
     </row>
@@ -2008,12 +3067,21 @@
         <v>123</v>
       </c>
       <c r="B118">
+        <v>24</v>
+      </c>
+      <c r="C118">
         <v>12</v>
       </c>
-      <c r="C118">
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
         <v>11.107485</v>
       </c>
-      <c r="D118">
+      <c r="G118">
         <v>43.324489</v>
       </c>
     </row>
@@ -2022,12 +3090,21 @@
         <v>124</v>
       </c>
       <c r="B119">
+        <v>24</v>
+      </c>
+      <c r="C119">
         <v>12</v>
       </c>
-      <c r="C119">
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
         <v>11.107485</v>
       </c>
-      <c r="D119">
+      <c r="G119">
         <v>43.324489</v>
       </c>
     </row>
@@ -2036,12 +3113,21 @@
         <v>125</v>
       </c>
       <c r="B120">
+        <v>24</v>
+      </c>
+      <c r="C120">
         <v>12</v>
       </c>
-      <c r="C120">
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
         <v>11.107485</v>
       </c>
-      <c r="D120">
+      <c r="G120">
         <v>43.324489</v>
       </c>
     </row>
@@ -2050,12 +3136,21 @@
         <v>126</v>
       </c>
       <c r="B121">
+        <v>24</v>
+      </c>
+      <c r="C121">
         <v>12</v>
       </c>
-      <c r="C121">
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
         <v>11.107485</v>
       </c>
-      <c r="D121">
+      <c r="G121">
         <v>43.324489</v>
       </c>
     </row>
@@ -2064,12 +3159,21 @@
         <v>127</v>
       </c>
       <c r="B122">
+        <v>25</v>
+      </c>
+      <c r="C122">
         <v>12</v>
       </c>
-      <c r="C122">
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
         <v>11.107485</v>
       </c>
-      <c r="D122">
+      <c r="G122">
         <v>43.324489</v>
       </c>
     </row>
@@ -2078,12 +3182,21 @@
         <v>128</v>
       </c>
       <c r="B123">
+        <v>24</v>
+      </c>
+      <c r="C123">
         <v>12</v>
       </c>
-      <c r="C123">
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
         <v>11.107485</v>
       </c>
-      <c r="D123">
+      <c r="G123">
         <v>43.324489</v>
       </c>
     </row>
@@ -2092,12 +3205,21 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
         <v>9.708315000000001</v>
       </c>
-      <c r="D124">
+      <c r="G124">
         <v>44.128219</v>
       </c>
     </row>
@@ -2106,12 +3228,21 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C125">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125">
         <v>9.708315000000001</v>
       </c>
-      <c r="D125">
+      <c r="G125">
         <v>44.128219</v>
       </c>
     </row>
@@ -2120,12 +3251,21 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C126">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
         <v>9.708315000000001</v>
       </c>
-      <c r="D126">
+      <c r="G126">
         <v>44.128219</v>
       </c>
     </row>
@@ -2134,12 +3274,21 @@
         <v>133</v>
       </c>
       <c r="B127">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C127">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
         <v>9.708315000000001</v>
       </c>
-      <c r="D127">
+      <c r="G127">
         <v>44.128219</v>
       </c>
     </row>
@@ -2148,12 +3297,21 @@
         <v>134</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
         <v>9.708315000000001</v>
       </c>
-      <c r="D128">
+      <c r="G128">
         <v>44.128219</v>
       </c>
     </row>
@@ -2162,12 +3320,21 @@
         <v>135</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129">
         <v>9.708315000000001</v>
       </c>
-      <c r="D129">
+      <c r="G129">
         <v>44.128219</v>
       </c>
     </row>
@@ -2176,12 +3343,21 @@
         <v>136</v>
       </c>
       <c r="B130">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C130">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
         <v>9.708315000000001</v>
       </c>
-      <c r="D130">
+      <c r="G130">
         <v>44.128219</v>
       </c>
     </row>
@@ -2190,12 +3366,21 @@
         <v>137</v>
       </c>
       <c r="B131">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
         <v>9.708315000000001</v>
       </c>
-      <c r="D131">
+      <c r="G131">
         <v>44.128219</v>
       </c>
     </row>
@@ -2204,12 +3389,21 @@
         <v>138</v>
       </c>
       <c r="B132">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C132">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
         <v>9.708315000000001</v>
       </c>
-      <c r="D132">
+      <c r="G132">
         <v>44.128219</v>
       </c>
     </row>
@@ -2218,12 +3412,21 @@
         <v>139</v>
       </c>
       <c r="B133">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C133">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
         <v>9.743176999999999</v>
       </c>
-      <c r="D133">
+      <c r="G133">
         <v>44.110035</v>
       </c>
     </row>
@@ -2232,12 +3435,21 @@
         <v>140</v>
       </c>
       <c r="B134">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
         <v>9.712043</v>
       </c>
-      <c r="D134">
+      <c r="G134">
         <v>44.12923</v>
       </c>
     </row>
@@ -2246,12 +3458,21 @@
         <v>142</v>
       </c>
       <c r="B135">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C135">
+        <v>9</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135">
         <v>9.707646</v>
       </c>
-      <c r="D135">
+      <c r="G135">
         <v>44.134695</v>
       </c>
     </row>
@@ -2260,12 +3481,21 @@
         <v>143</v>
       </c>
       <c r="B136">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C136">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
         <v>9.702786</v>
       </c>
-      <c r="D136">
+      <c r="G136">
         <v>44.130746</v>
       </c>
     </row>
@@ -2274,12 +3504,21 @@
         <v>144</v>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C137">
+        <v>9</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
         <v>9.691005000000001</v>
       </c>
-      <c r="D137">
+      <c r="G137">
         <v>44.145223</v>
       </c>
     </row>
@@ -2288,12 +3527,21 @@
         <v>145</v>
       </c>
       <c r="B138">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C138">
+        <v>9</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
         <v>9.670712</v>
       </c>
-      <c r="D138">
+      <c r="G138">
         <v>44.151871</v>
       </c>
     </row>
@@ -2302,12 +3550,21 @@
         <v>146</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C139">
+        <v>9</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
         <v>9.774668</v>
       </c>
-      <c r="D139">
+      <c r="G139">
         <v>44.087164</v>
       </c>
     </row>
@@ -2316,12 +3573,21 @@
         <v>147</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C140">
+        <v>9</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
         <v>9.689674999999999</v>
       </c>
-      <c r="D140">
+      <c r="G140">
         <v>44.170593</v>
       </c>
     </row>
@@ -2330,12 +3596,21 @@
         <v>148</v>
       </c>
       <c r="B141">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C141">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
         <v>9.683113000000001</v>
       </c>
-      <c r="D141">
+      <c r="G141">
         <v>44.166752</v>
       </c>
     </row>
@@ -2344,12 +3619,21 @@
         <v>149</v>
       </c>
       <c r="B142">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
         <v>9.659585999999999</v>
       </c>
-      <c r="D142">
+      <c r="G142">
         <v>44.164522</v>
       </c>
     </row>
@@ -2358,12 +3642,21 @@
         <v>150</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143">
         <v>9.653347999999999</v>
       </c>
-      <c r="D143">
+      <c r="G143">
         <v>44.159066</v>
       </c>
     </row>
@@ -2372,12 +3665,21 @@
         <v>151</v>
       </c>
       <c r="B144">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C144">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
         <v>9.647311999999999</v>
       </c>
-      <c r="D144">
+      <c r="G144">
         <v>44.161828</v>
       </c>
     </row>
@@ -2386,12 +3688,21 @@
         <v>152</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145">
         <v>9.754502000000001</v>
       </c>
-      <c r="D145">
+      <c r="G145">
         <v>44.097545</v>
       </c>
     </row>
@@ -2400,12 +3711,21 @@
         <v>153</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C146">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
         <v>9.705245</v>
       </c>
-      <c r="D146">
+      <c r="G146">
         <v>44.147233</v>
       </c>
     </row>
@@ -2414,12 +3734,21 @@
         <v>154</v>
       </c>
       <c r="B147">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C147">
+        <v>9</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
         <v>9.722689000000001</v>
       </c>
-      <c r="D147">
+      <c r="G147">
         <v>44.1207</v>
       </c>
     </row>
@@ -2428,12 +3757,21 @@
         <v>155</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C148">
+        <v>9</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
         <v>9.737268</v>
       </c>
-      <c r="D148">
+      <c r="G148">
         <v>44.11823</v>
       </c>
     </row>
@@ -2442,12 +3780,21 @@
         <v>156</v>
       </c>
       <c r="B149">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C149">
+        <v>9</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149">
         <v>9.731849</v>
       </c>
-      <c r="D149">
+      <c r="G149">
         <v>44.116563</v>
       </c>
     </row>
@@ -2456,12 +3803,21 @@
         <v>157</v>
       </c>
       <c r="B150">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C150">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
         <v>9.633543</v>
       </c>
-      <c r="D150">
+      <c r="G150">
         <v>44.140874</v>
       </c>
     </row>
@@ -2470,12 +3826,21 @@
         <v>158</v>
       </c>
       <c r="B151">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C151">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151">
         <v>9.634577</v>
       </c>
-      <c r="D151">
+      <c r="G151">
         <v>44.151051</v>
       </c>
     </row>
@@ -2484,12 +3849,21 @@
         <v>159</v>
       </c>
       <c r="B152">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C152">
+        <v>9</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152">
         <v>9.743176999999999</v>
       </c>
-      <c r="D152">
+      <c r="G152">
         <v>44.110035</v>
       </c>
     </row>
@@ -2498,12 +3872,21 @@
         <v>160</v>
       </c>
       <c r="B153">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C153">
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
         <v>9.712043</v>
       </c>
-      <c r="D153">
+      <c r="G153">
         <v>44.12923</v>
       </c>
     </row>
@@ -2512,12 +3895,21 @@
         <v>162</v>
       </c>
       <c r="B154">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C154">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154">
         <v>9.707646</v>
       </c>
-      <c r="D154">
+      <c r="G154">
         <v>44.134695</v>
       </c>
     </row>
@@ -2526,12 +3918,21 @@
         <v>163</v>
       </c>
       <c r="B155">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
         <v>9.702786</v>
       </c>
-      <c r="D155">
+      <c r="G155">
         <v>44.130746</v>
       </c>
     </row>
@@ -2540,12 +3941,21 @@
         <v>164</v>
       </c>
       <c r="B156">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C156">
+        <v>9</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
         <v>9.691005000000001</v>
       </c>
-      <c r="D156">
+      <c r="G156">
         <v>44.145223</v>
       </c>
     </row>
@@ -2554,12 +3964,21 @@
         <v>165</v>
       </c>
       <c r="B157">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C157">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>4</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
         <v>9.670712</v>
       </c>
-      <c r="D157">
+      <c r="G157">
         <v>44.151871</v>
       </c>
     </row>
@@ -2568,12 +3987,21 @@
         <v>166</v>
       </c>
       <c r="B158">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C158">
+        <v>9</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
         <v>9.774668</v>
       </c>
-      <c r="D158">
+      <c r="G158">
         <v>44.087164</v>
       </c>
     </row>
@@ -2582,12 +4010,21 @@
         <v>167</v>
       </c>
       <c r="B159">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C159">
+        <v>9</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
         <v>9.689674999999999</v>
       </c>
-      <c r="D159">
+      <c r="G159">
         <v>44.170593</v>
       </c>
     </row>
@@ -2596,12 +4033,21 @@
         <v>168</v>
       </c>
       <c r="B160">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C160">
+        <v>9</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
         <v>9.683113000000001</v>
       </c>
-      <c r="D160">
+      <c r="G160">
         <v>44.166752</v>
       </c>
     </row>
@@ -2610,12 +4056,21 @@
         <v>169</v>
       </c>
       <c r="B161">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C161">
+        <v>9</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
         <v>9.659585999999999</v>
       </c>
-      <c r="D161">
+      <c r="G161">
         <v>44.164522</v>
       </c>
     </row>
@@ -2624,12 +4079,21 @@
         <v>170</v>
       </c>
       <c r="B162">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C162">
+        <v>9</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
         <v>9.653347999999999</v>
       </c>
-      <c r="D162">
+      <c r="G162">
         <v>44.159066</v>
       </c>
     </row>
@@ -2638,12 +4102,21 @@
         <v>171</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C163">
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
         <v>9.647311999999999</v>
       </c>
-      <c r="D163">
+      <c r="G163">
         <v>44.161828</v>
       </c>
     </row>
@@ -2652,12 +4125,21 @@
         <v>172</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C164">
+        <v>9</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
         <v>9.754502000000001</v>
       </c>
-      <c r="D164">
+      <c r="G164">
         <v>44.097545</v>
       </c>
     </row>
@@ -2666,12 +4148,21 @@
         <v>173</v>
       </c>
       <c r="B165">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C165">
+        <v>9</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
         <v>9.705245</v>
       </c>
-      <c r="D165">
+      <c r="G165">
         <v>44.147233</v>
       </c>
     </row>
@@ -2680,12 +4171,21 @@
         <v>175</v>
       </c>
       <c r="B166">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C166">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
         <v>9.737268</v>
       </c>
-      <c r="D166">
+      <c r="G166">
         <v>44.11823</v>
       </c>
     </row>
@@ -2694,12 +4194,21 @@
         <v>176</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C167">
+        <v>9</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
         <v>9.731849</v>
       </c>
-      <c r="D167">
+      <c r="G167">
         <v>44.116563</v>
       </c>
     </row>
@@ -2708,12 +4217,21 @@
         <v>177</v>
       </c>
       <c r="B168">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C168">
+        <v>9</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
         <v>9.633543</v>
       </c>
-      <c r="D168">
+      <c r="G168">
         <v>44.140874</v>
       </c>
     </row>
@@ -2722,12 +4240,21 @@
         <v>178</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C169">
+        <v>9</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
         <v>9.634577</v>
       </c>
-      <c r="D169">
+      <c r="G169">
         <v>44.151051</v>
       </c>
     </row>
@@ -2736,12 +4263,21 @@
         <v>179</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C170">
+        <v>9</v>
+      </c>
+      <c r="D170">
+        <v>4</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170">
         <v>9.743176999999999</v>
       </c>
-      <c r="D170">
+      <c r="G170">
         <v>44.110035</v>
       </c>
     </row>
@@ -2750,12 +4286,21 @@
         <v>180</v>
       </c>
       <c r="B171">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C171">
+        <v>9</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
         <v>9.712043</v>
       </c>
-      <c r="D171">
+      <c r="G171">
         <v>44.12923</v>
       </c>
     </row>
@@ -2764,12 +4309,21 @@
         <v>182</v>
       </c>
       <c r="B172">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C172">
+        <v>9</v>
+      </c>
+      <c r="D172">
+        <v>4</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
         <v>9.707646</v>
       </c>
-      <c r="D172">
+      <c r="G172">
         <v>44.134695</v>
       </c>
     </row>
@@ -2778,12 +4332,21 @@
         <v>183</v>
       </c>
       <c r="B173">
+        <v>16</v>
+      </c>
+      <c r="C173">
         <v>8</v>
       </c>
-      <c r="C173">
+      <c r="D173">
+        <v>4</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173">
         <v>9.702786</v>
       </c>
-      <c r="D173">
+      <c r="G173">
         <v>44.130746</v>
       </c>
     </row>
@@ -2792,12 +4355,21 @@
         <v>184</v>
       </c>
       <c r="B174">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C174">
+        <v>9</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
         <v>9.691005000000001</v>
       </c>
-      <c r="D174">
+      <c r="G174">
         <v>44.145223</v>
       </c>
     </row>
@@ -2806,12 +4378,21 @@
         <v>185</v>
       </c>
       <c r="B175">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C175">
+        <v>9</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
         <v>9.670712</v>
       </c>
-      <c r="D175">
+      <c r="G175">
         <v>44.151871</v>
       </c>
     </row>
@@ -2820,12 +4401,21 @@
         <v>186</v>
       </c>
       <c r="B176">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C176">
+        <v>9</v>
+      </c>
+      <c r="D176">
+        <v>4</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
         <v>9.774668</v>
       </c>
-      <c r="D176">
+      <c r="G176">
         <v>44.087164</v>
       </c>
     </row>
@@ -2834,12 +4424,21 @@
         <v>187</v>
       </c>
       <c r="B177">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C177">
+        <v>9</v>
+      </c>
+      <c r="D177">
+        <v>4</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
         <v>9.689674999999999</v>
       </c>
-      <c r="D177">
+      <c r="G177">
         <v>44.170593</v>
       </c>
     </row>
@@ -2848,12 +4447,21 @@
         <v>188</v>
       </c>
       <c r="B178">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C178">
+        <v>9</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178">
         <v>9.683113000000001</v>
       </c>
-      <c r="D178">
+      <c r="G178">
         <v>44.166752</v>
       </c>
     </row>
@@ -2862,12 +4470,21 @@
         <v>189</v>
       </c>
       <c r="B179">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C179">
+        <v>9</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179">
         <v>9.659585999999999</v>
       </c>
-      <c r="D179">
+      <c r="G179">
         <v>44.164522</v>
       </c>
     </row>
@@ -2876,12 +4493,21 @@
         <v>190</v>
       </c>
       <c r="B180">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C180">
+        <v>9</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
         <v>9.653347999999999</v>
       </c>
-      <c r="D180">
+      <c r="G180">
         <v>44.159066</v>
       </c>
     </row>
@@ -2890,12 +4516,21 @@
         <v>191</v>
       </c>
       <c r="B181">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C181">
+        <v>9</v>
+      </c>
+      <c r="D181">
+        <v>4</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
         <v>9.647311999999999</v>
       </c>
-      <c r="D181">
+      <c r="G181">
         <v>44.161828</v>
       </c>
     </row>
@@ -2904,12 +4539,21 @@
         <v>192</v>
       </c>
       <c r="B182">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C182">
+        <v>9</v>
+      </c>
+      <c r="D182">
+        <v>4</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
         <v>9.754502000000001</v>
       </c>
-      <c r="D182">
+      <c r="G182">
         <v>44.097545</v>
       </c>
     </row>
@@ -2918,12 +4562,21 @@
         <v>193</v>
       </c>
       <c r="B183">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C183">
+        <v>9</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
         <v>9.705245</v>
       </c>
-      <c r="D183">
+      <c r="G183">
         <v>44.147233</v>
       </c>
     </row>
@@ -2932,12 +4585,21 @@
         <v>195</v>
       </c>
       <c r="B184">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C184">
+        <v>9</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
         <v>9.737268</v>
       </c>
-      <c r="D184">
+      <c r="G184">
         <v>44.11823</v>
       </c>
     </row>
@@ -2946,12 +4608,21 @@
         <v>196</v>
       </c>
       <c r="B185">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C185">
+        <v>9</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
         <v>9.731849</v>
       </c>
-      <c r="D185">
+      <c r="G185">
         <v>44.116563</v>
       </c>
     </row>
@@ -2960,12 +4631,21 @@
         <v>197</v>
       </c>
       <c r="B186">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C186">
+        <v>9</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
         <v>9.633543</v>
       </c>
-      <c r="D186">
+      <c r="G186">
         <v>44.140874</v>
       </c>
     </row>
@@ -2974,12 +4654,21 @@
         <v>198</v>
       </c>
       <c r="B187">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C187">
+        <v>9</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187">
         <v>9.634577</v>
       </c>
-      <c r="D187">
+      <c r="G187">
         <v>44.151051</v>
       </c>
     </row>
@@ -2988,12 +4677,21 @@
         <v>228</v>
       </c>
       <c r="B188">
+        <v>30</v>
+      </c>
+      <c r="C188">
         <v>15</v>
       </c>
-      <c r="C188">
+      <c r="D188">
+        <v>7</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
         <v>8.474005999999999</v>
       </c>
-      <c r="D188">
+      <c r="G188">
         <v>44.472488</v>
       </c>
     </row>
@@ -3002,12 +4700,21 @@
         <v>229</v>
       </c>
       <c r="B189">
+        <v>30</v>
+      </c>
+      <c r="C189">
         <v>15</v>
       </c>
-      <c r="C189">
+      <c r="D189">
+        <v>7</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
         <v>8.474005999999999</v>
       </c>
-      <c r="D189">
+      <c r="G189">
         <v>44.472488</v>
       </c>
     </row>
@@ -3016,12 +4723,21 @@
         <v>230</v>
       </c>
       <c r="B190">
+        <v>30</v>
+      </c>
+      <c r="C190">
         <v>15</v>
       </c>
-      <c r="C190">
+      <c r="D190">
+        <v>7</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
         <v>8.474005999999999</v>
       </c>
-      <c r="D190">
+      <c r="G190">
         <v>44.472488</v>
       </c>
     </row>
@@ -3030,12 +4746,21 @@
         <v>231</v>
       </c>
       <c r="B191">
+        <v>30</v>
+      </c>
+      <c r="C191">
         <v>15</v>
       </c>
-      <c r="C191">
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+      <c r="F191">
         <v>8.474005999999999</v>
       </c>
-      <c r="D191">
+      <c r="G191">
         <v>44.472488</v>
       </c>
     </row>
@@ -3044,12 +4769,21 @@
         <v>232</v>
       </c>
       <c r="B192">
+        <v>30</v>
+      </c>
+      <c r="C192">
         <v>15</v>
       </c>
-      <c r="C192">
+      <c r="D192">
+        <v>7</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192">
         <v>8.474005999999999</v>
       </c>
-      <c r="D192">
+      <c r="G192">
         <v>44.472488</v>
       </c>
     </row>
@@ -3058,12 +4792,21 @@
         <v>233</v>
       </c>
       <c r="B193">
+        <v>30</v>
+      </c>
+      <c r="C193">
         <v>15</v>
       </c>
-      <c r="C193">
+      <c r="D193">
+        <v>7</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193">
         <v>8.474005999999999</v>
       </c>
-      <c r="D193">
+      <c r="G193">
         <v>44.472488</v>
       </c>
     </row>
@@ -3072,12 +4815,21 @@
         <v>234</v>
       </c>
       <c r="B194">
+        <v>30</v>
+      </c>
+      <c r="C194">
         <v>15</v>
       </c>
-      <c r="C194">
+      <c r="D194">
+        <v>7</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194">
         <v>8.474005999999999</v>
       </c>
-      <c r="D194">
+      <c r="G194">
         <v>44.472488</v>
       </c>
     </row>
@@ -3086,12 +4838,21 @@
         <v>235</v>
       </c>
       <c r="B195">
+        <v>31</v>
+      </c>
+      <c r="C195">
         <v>15</v>
       </c>
-      <c r="C195">
+      <c r="D195">
+        <v>7</v>
+      </c>
+      <c r="E195">
+        <v>3</v>
+      </c>
+      <c r="F195">
         <v>8.474005999999999</v>
       </c>
-      <c r="D195">
+      <c r="G195">
         <v>44.472488</v>
       </c>
     </row>
@@ -3100,12 +4861,21 @@
         <v>236</v>
       </c>
       <c r="B196">
+        <v>31</v>
+      </c>
+      <c r="C196">
         <v>15</v>
       </c>
-      <c r="C196">
+      <c r="D196">
+        <v>7</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196">
         <v>8.474005999999999</v>
       </c>
-      <c r="D196">
+      <c r="G196">
         <v>44.472488</v>
       </c>
     </row>
@@ -3114,12 +4884,21 @@
         <v>237</v>
       </c>
       <c r="B197">
+        <v>31</v>
+      </c>
+      <c r="C197">
         <v>15</v>
       </c>
-      <c r="C197">
+      <c r="D197">
+        <v>7</v>
+      </c>
+      <c r="E197">
+        <v>3</v>
+      </c>
+      <c r="F197">
         <v>8.474005999999999</v>
       </c>
-      <c r="D197">
+      <c r="G197">
         <v>44.472488</v>
       </c>
     </row>
@@ -3128,12 +4907,21 @@
         <v>238</v>
       </c>
       <c r="B198">
+        <v>31</v>
+      </c>
+      <c r="C198">
         <v>15</v>
       </c>
-      <c r="C198">
+      <c r="D198">
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+      <c r="F198">
         <v>8.474005999999999</v>
       </c>
-      <c r="D198">
+      <c r="G198">
         <v>44.472488</v>
       </c>
     </row>
@@ -3142,12 +4930,21 @@
         <v>239</v>
       </c>
       <c r="B199">
+        <v>31</v>
+      </c>
+      <c r="C199">
         <v>15</v>
       </c>
-      <c r="C199">
+      <c r="D199">
+        <v>7</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+      <c r="F199">
         <v>8.474005999999999</v>
       </c>
-      <c r="D199">
+      <c r="G199">
         <v>44.472488</v>
       </c>
     </row>
@@ -3156,12 +4953,21 @@
         <v>241</v>
       </c>
       <c r="B200">
+        <v>31</v>
+      </c>
+      <c r="C200">
         <v>15</v>
       </c>
-      <c r="C200">
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <v>3</v>
+      </c>
+      <c r="F200">
         <v>8.474005999999999</v>
       </c>
-      <c r="D200">
+      <c r="G200">
         <v>44.472488</v>
       </c>
     </row>
@@ -3170,12 +4976,21 @@
         <v>242</v>
       </c>
       <c r="B201">
+        <v>30</v>
+      </c>
+      <c r="C201">
         <v>15</v>
       </c>
-      <c r="C201">
+      <c r="D201">
+        <v>7</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="F201">
         <v>8.474005999999999</v>
       </c>
-      <c r="D201">
+      <c r="G201">
         <v>44.472488</v>
       </c>
     </row>
@@ -3184,12 +4999,21 @@
         <v>243</v>
       </c>
       <c r="B202">
+        <v>30</v>
+      </c>
+      <c r="C202">
         <v>15</v>
       </c>
-      <c r="C202">
+      <c r="D202">
+        <v>7</v>
+      </c>
+      <c r="E202">
+        <v>3</v>
+      </c>
+      <c r="F202">
         <v>8.474005999999999</v>
       </c>
-      <c r="D202">
+      <c r="G202">
         <v>44.472488</v>
       </c>
     </row>
@@ -3198,12 +5022,21 @@
         <v>244</v>
       </c>
       <c r="B203">
+        <v>31</v>
+      </c>
+      <c r="C203">
         <v>15</v>
       </c>
-      <c r="C203">
+      <c r="D203">
+        <v>7</v>
+      </c>
+      <c r="E203">
+        <v>3</v>
+      </c>
+      <c r="F203">
         <v>8.474005999999999</v>
       </c>
-      <c r="D203">
+      <c r="G203">
         <v>44.472488</v>
       </c>
     </row>
@@ -3212,12 +5045,21 @@
         <v>245</v>
       </c>
       <c r="B204">
+        <v>31</v>
+      </c>
+      <c r="C204">
         <v>15</v>
       </c>
-      <c r="C204">
+      <c r="D204">
+        <v>7</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="F204">
         <v>8.474005999999999</v>
       </c>
-      <c r="D204">
+      <c r="G204">
         <v>44.472488</v>
       </c>
     </row>
@@ -3226,12 +5068,21 @@
         <v>246</v>
       </c>
       <c r="B205">
+        <v>30</v>
+      </c>
+      <c r="C205">
         <v>15</v>
       </c>
-      <c r="C205">
+      <c r="D205">
+        <v>7</v>
+      </c>
+      <c r="E205">
+        <v>3</v>
+      </c>
+      <c r="F205">
         <v>8.445971</v>
       </c>
-      <c r="D205">
+      <c r="G205">
         <v>44.525474</v>
       </c>
     </row>
@@ -3243,9 +5094,18 @@
         <v>14</v>
       </c>
       <c r="C206">
+        <v>14</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+      <c r="E206">
+        <v>3</v>
+      </c>
+      <c r="F206">
         <v>9.565355</v>
       </c>
-      <c r="D206">
+      <c r="G206">
         <v>44.208513</v>
       </c>
     </row>
@@ -3257,9 +5117,18 @@
         <v>14</v>
       </c>
       <c r="C207">
+        <v>14</v>
+      </c>
+      <c r="D207">
+        <v>7</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207">
         <v>9.551519000000001</v>
       </c>
-      <c r="D207">
+      <c r="G207">
         <v>44.239466</v>
       </c>
     </row>
@@ -3271,9 +5140,18 @@
         <v>14</v>
       </c>
       <c r="C208">
+        <v>14</v>
+      </c>
+      <c r="D208">
+        <v>7</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208">
         <v>9.551519000000001</v>
       </c>
-      <c r="D208">
+      <c r="G208">
         <v>44.239466</v>
       </c>
     </row>
@@ -3285,9 +5163,18 @@
         <v>14</v>
       </c>
       <c r="C209">
+        <v>14</v>
+      </c>
+      <c r="D209">
+        <v>7</v>
+      </c>
+      <c r="E209">
+        <v>3</v>
+      </c>
+      <c r="F209">
         <v>9.550658</v>
       </c>
-      <c r="D209">
+      <c r="G209">
         <v>44.274814</v>
       </c>
     </row>
@@ -3296,12 +5183,21 @@
         <v>251</v>
       </c>
       <c r="B210">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C210">
+        <v>11</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210">
         <v>11.217222</v>
       </c>
-      <c r="D210">
+      <c r="G210">
         <v>43.103167</v>
       </c>
     </row>
@@ -3310,12 +5206,21 @@
         <v>252</v>
       </c>
       <c r="B211">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C211">
+        <v>11</v>
+      </c>
+      <c r="D211">
+        <v>5</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
         <v>11.310833</v>
       </c>
-      <c r="D211">
+      <c r="G211">
         <v>43.104444</v>
       </c>
     </row>
@@ -3324,12 +5229,21 @@
         <v>253</v>
       </c>
       <c r="B212">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C212">
+        <v>11</v>
+      </c>
+      <c r="D212">
+        <v>5</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212">
         <v>11.238889</v>
       </c>
-      <c r="D212">
+      <c r="G212">
         <v>43.125278</v>
       </c>
     </row>
@@ -3338,12 +5252,21 @@
         <v>254</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C213">
+        <v>11</v>
+      </c>
+      <c r="D213">
+        <v>5</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213">
         <v>11.242222</v>
       </c>
-      <c r="D213">
+      <c r="G213">
         <v>43.131389</v>
       </c>
     </row>
@@ -3352,12 +5275,21 @@
         <v>255</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C214">
+        <v>11</v>
+      </c>
+      <c r="D214">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214">
         <v>11.247222</v>
       </c>
-      <c r="D214">
+      <c r="G214">
         <v>43.13</v>
       </c>
     </row>
@@ -3366,12 +5298,21 @@
         <v>256</v>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C215">
+        <v>11</v>
+      </c>
+      <c r="D215">
+        <v>5</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
         <v>11.236389</v>
       </c>
-      <c r="D215">
+      <c r="G215">
         <v>43.128889</v>
       </c>
     </row>
@@ -3380,12 +5321,21 @@
         <v>257</v>
       </c>
       <c r="B216">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C216">
+        <v>11</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
         <v>11.235278</v>
       </c>
-      <c r="D216">
+      <c r="G216">
         <v>43.153333</v>
       </c>
     </row>
@@ -3394,12 +5344,21 @@
         <v>258</v>
       </c>
       <c r="B217">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C217">
+        <v>11</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217">
         <v>11.234722</v>
       </c>
-      <c r="D217">
+      <c r="G217">
         <v>43.1575</v>
       </c>
     </row>
@@ -3408,12 +5367,21 @@
         <v>259</v>
       </c>
       <c r="B218">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C218">
+        <v>11</v>
+      </c>
+      <c r="D218">
+        <v>5</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
         <v>11.230833</v>
       </c>
-      <c r="D218">
+      <c r="G218">
         <v>43.156944</v>
       </c>
     </row>
@@ -3422,12 +5390,21 @@
         <v>260</v>
       </c>
       <c r="B219">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C219">
+        <v>11</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219">
         <v>11.231111</v>
       </c>
-      <c r="D219">
+      <c r="G219">
         <v>43.162222</v>
       </c>
     </row>
@@ -3436,12 +5413,21 @@
         <v>262</v>
       </c>
       <c r="B220">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C220">
+        <v>11</v>
+      </c>
+      <c r="D220">
+        <v>5</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220">
         <v>11.225833</v>
       </c>
-      <c r="D220">
+      <c r="G220">
         <v>43.135556</v>
       </c>
     </row>
@@ -3450,12 +5436,21 @@
         <v>263</v>
       </c>
       <c r="B221">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C221">
+        <v>11</v>
+      </c>
+      <c r="D221">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221">
         <v>11.225833</v>
       </c>
-      <c r="D221">
+      <c r="G221">
         <v>43.135556</v>
       </c>
     </row>
@@ -3464,12 +5459,21 @@
         <v>264</v>
       </c>
       <c r="B222">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C222">
+        <v>11</v>
+      </c>
+      <c r="D222">
+        <v>5</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222">
         <v>11.226667</v>
       </c>
-      <c r="D222">
+      <c r="G222">
         <v>43.118611</v>
       </c>
     </row>
@@ -3478,12 +5482,21 @@
         <v>265</v>
       </c>
       <c r="B223">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C223">
+        <v>11</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223">
         <v>11.22</v>
       </c>
-      <c r="D223">
+      <c r="G223">
         <v>43.119167</v>
       </c>
     </row>
@@ -3492,12 +5505,21 @@
         <v>266</v>
       </c>
       <c r="B224">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C224">
+        <v>11</v>
+      </c>
+      <c r="D224">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+      <c r="F224">
         <v>11.216389</v>
       </c>
-      <c r="D224">
+      <c r="G224">
         <v>43.124167</v>
       </c>
     </row>
@@ -3506,12 +5528,21 @@
         <v>267</v>
       </c>
       <c r="B225">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C225">
+        <v>11</v>
+      </c>
+      <c r="D225">
+        <v>5</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225">
         <v>11.2175</v>
       </c>
-      <c r="D225">
+      <c r="G225">
         <v>43.124167</v>
       </c>
     </row>
@@ -3520,12 +5551,21 @@
         <v>268</v>
       </c>
       <c r="B226">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C226">
+        <v>11</v>
+      </c>
+      <c r="D226">
+        <v>5</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226">
         <v>11.243889</v>
       </c>
-      <c r="D226">
+      <c r="G226">
         <v>43.104444</v>
       </c>
     </row>
@@ -3534,12 +5574,21 @@
         <v>269</v>
       </c>
       <c r="B227">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C227">
+        <v>11</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227">
         <v>11.244722</v>
       </c>
-      <c r="D227">
+      <c r="G227">
         <v>43.107778</v>
       </c>
     </row>
@@ -3548,12 +5597,21 @@
         <v>270</v>
       </c>
       <c r="B228">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C228">
+        <v>11</v>
+      </c>
+      <c r="D228">
+        <v>5</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228">
         <v>11.243889</v>
       </c>
-      <c r="D228">
+      <c r="G228">
         <v>43.111389</v>
       </c>
     </row>
@@ -3562,12 +5620,21 @@
         <v>271</v>
       </c>
       <c r="B229">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C229">
+        <v>11</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229">
         <v>11.282222</v>
       </c>
-      <c r="D229">
+      <c r="G229">
         <v>43.055556</v>
       </c>
     </row>
@@ -3576,12 +5643,21 @@
         <v>272</v>
       </c>
       <c r="B230">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C230">
+        <v>11</v>
+      </c>
+      <c r="D230">
+        <v>5</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230">
         <v>11.259444</v>
       </c>
-      <c r="D230">
+      <c r="G230">
         <v>43.07</v>
       </c>
     </row>
@@ -3590,12 +5666,21 @@
         <v>273</v>
       </c>
       <c r="B231">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C231">
+        <v>11</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231">
         <v>11.246944</v>
       </c>
-      <c r="D231">
+      <c r="G231">
         <v>43.070833</v>
       </c>
     </row>
@@ -3604,12 +5689,21 @@
         <v>274</v>
       </c>
       <c r="B232">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C232">
+        <v>11</v>
+      </c>
+      <c r="D232">
+        <v>5</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232">
         <v>11.237222</v>
       </c>
-      <c r="D232">
+      <c r="G232">
         <v>43.071667</v>
       </c>
     </row>
@@ -3618,12 +5712,21 @@
         <v>275</v>
       </c>
       <c r="B233">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C233">
+        <v>11</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
         <v>11.150556</v>
       </c>
-      <c r="D233">
+      <c r="G233">
         <v>43.114444</v>
       </c>
     </row>
@@ -3632,12 +5735,21 @@
         <v>276</v>
       </c>
       <c r="B234">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C234">
+        <v>11</v>
+      </c>
+      <c r="D234">
+        <v>5</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
         <v>11.252222</v>
       </c>
-      <c r="D234">
+      <c r="G234">
         <v>43.134167</v>
       </c>
     </row>
@@ -3646,12 +5758,21 @@
         <v>277</v>
       </c>
       <c r="B235">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C235">
+        <v>11</v>
+      </c>
+      <c r="D235">
+        <v>5</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
         <v>11.2475</v>
       </c>
-      <c r="D235">
+      <c r="G235">
         <v>43.133056</v>
       </c>
     </row>
@@ -3660,12 +5781,21 @@
         <v>278</v>
       </c>
       <c r="B236">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C236">
+        <v>11</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
         <v>11.246389</v>
       </c>
-      <c r="D236">
+      <c r="G236">
         <v>43.139167</v>
       </c>
     </row>
@@ -3674,12 +5804,21 @@
         <v>279</v>
       </c>
       <c r="B237">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C237">
+        <v>11</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237">
         <v>11.248333</v>
       </c>
-      <c r="D237">
+      <c r="G237">
         <v>43.145</v>
       </c>
     </row>
@@ -3688,12 +5827,21 @@
         <v>280</v>
       </c>
       <c r="B238">
+        <v>21</v>
+      </c>
+      <c r="C238">
         <v>10</v>
       </c>
-      <c r="C238">
+      <c r="D238">
+        <v>5</v>
+      </c>
+      <c r="E238">
+        <v>2</v>
+      </c>
+      <c r="F238">
         <v>11.256944</v>
       </c>
-      <c r="D238">
+      <c r="G238">
         <v>43.138611</v>
       </c>
     </row>
@@ -3702,12 +5850,21 @@
         <v>281</v>
       </c>
       <c r="B239">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C239">
+        <v>11</v>
+      </c>
+      <c r="D239">
+        <v>5</v>
+      </c>
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239">
         <v>11.253611</v>
       </c>
-      <c r="D239">
+      <c r="G239">
         <v>43.135833</v>
       </c>
     </row>
@@ -3716,12 +5873,21 @@
         <v>282</v>
       </c>
       <c r="B240">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C240">
+        <v>11</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240">
         <v>11.231389</v>
       </c>
-      <c r="D240">
+      <c r="G240">
         <v>43.123611</v>
       </c>
     </row>
@@ -3730,12 +5896,21 @@
         <v>283</v>
       </c>
       <c r="B241">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C241">
+        <v>11</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
         <v>11.231667</v>
       </c>
-      <c r="D241">
+      <c r="G241">
         <v>43.121667</v>
       </c>
     </row>
@@ -3744,12 +5919,21 @@
         <v>284</v>
       </c>
       <c r="B242">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C242">
+        <v>11</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242">
         <v>11.225556</v>
       </c>
-      <c r="D242">
+      <c r="G242">
         <v>43.167222</v>
       </c>
     </row>
@@ -3758,12 +5942,21 @@
         <v>285</v>
       </c>
       <c r="B243">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C243">
+        <v>11</v>
+      </c>
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243">
         <v>11.211667</v>
       </c>
-      <c r="D243">
+      <c r="G243">
         <v>43.234722</v>
       </c>
     </row>
@@ -3772,12 +5965,21 @@
         <v>286</v>
       </c>
       <c r="B244">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C244">
+        <v>11</v>
+      </c>
+      <c r="D244">
+        <v>5</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
         <v>11.185556</v>
       </c>
-      <c r="D244">
+      <c r="G244">
         <v>43.188611</v>
       </c>
     </row>
@@ -3786,12 +5988,21 @@
         <v>287</v>
       </c>
       <c r="B245">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C245">
+        <v>11</v>
+      </c>
+      <c r="D245">
+        <v>5</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245">
         <v>11.185556</v>
       </c>
-      <c r="D245">
+      <c r="G245">
         <v>43.188611</v>
       </c>
     </row>
@@ -3800,12 +6011,21 @@
         <v>288</v>
       </c>
       <c r="B246">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C246">
+        <v>11</v>
+      </c>
+      <c r="D246">
+        <v>5</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246">
         <v>11.206667</v>
       </c>
-      <c r="D246">
+      <c r="G246">
         <v>43.186667</v>
       </c>
     </row>
@@ -3814,12 +6034,21 @@
         <v>289</v>
       </c>
       <c r="B247">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C247">
+        <v>11</v>
+      </c>
+      <c r="D247">
+        <v>5</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+      <c r="F247">
         <v>11.192778</v>
       </c>
-      <c r="D247">
+      <c r="G247">
         <v>43.181111</v>
       </c>
     </row>
@@ -3828,12 +6057,21 @@
         <v>290</v>
       </c>
       <c r="B248">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C248">
+        <v>11</v>
+      </c>
+      <c r="D248">
+        <v>5</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248">
         <v>11.192778</v>
       </c>
-      <c r="D248">
+      <c r="G248">
         <v>43.181111</v>
       </c>
     </row>
@@ -3842,12 +6080,21 @@
         <v>291</v>
       </c>
       <c r="B249">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C249">
+        <v>11</v>
+      </c>
+      <c r="D249">
+        <v>5</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
         <v>11.1875</v>
       </c>
-      <c r="D249">
+      <c r="G249">
         <v>43.190556</v>
       </c>
     </row>
@@ -3856,12 +6103,21 @@
         <v>292</v>
       </c>
       <c r="B250">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C250">
+        <v>11</v>
+      </c>
+      <c r="D250">
+        <v>5</v>
+      </c>
+      <c r="E250">
+        <v>2</v>
+      </c>
+      <c r="F250">
         <v>11.188333</v>
       </c>
-      <c r="D250">
+      <c r="G250">
         <v>43.194167</v>
       </c>
     </row>
@@ -3870,12 +6126,21 @@
         <v>293</v>
       </c>
       <c r="B251">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C251">
+        <v>11</v>
+      </c>
+      <c r="D251">
+        <v>5</v>
+      </c>
+      <c r="E251">
+        <v>2</v>
+      </c>
+      <c r="F251">
         <v>11.185</v>
       </c>
-      <c r="D251">
+      <c r="G251">
         <v>43.186944</v>
       </c>
     </row>
@@ -3884,12 +6149,21 @@
         <v>294</v>
       </c>
       <c r="B252">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C252">
+        <v>11</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252">
         <v>11.183333</v>
       </c>
-      <c r="D252">
+      <c r="G252">
         <v>43.189722</v>
       </c>
     </row>

--- a/meta/header_data.xlsx
+++ b/meta/header_data.xlsx
@@ -3700,7 +3700,7 @@
         <v>2</v>
       </c>
       <c r="F145">
-        <v>9.754502000000001</v>
+        <v>9.754502</v>
       </c>
       <c r="G145">
         <v>44.097545</v>
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="F164">
-        <v>9.754502000000001</v>
+        <v>9.754502</v>
       </c>
       <c r="G164">
         <v>44.097545</v>
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="F182">
-        <v>9.754502000000001</v>
+        <v>9.754502</v>
       </c>
       <c r="G182">
         <v>44.097545</v>
